--- a/asn.xlsx
+++ b/asn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E564F34-7122-4189-A0B8-EA60A61EE3FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19F255E-D07D-45DC-9FA1-65B75FD37C3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3660" yWindow="2016" windowWidth="17280" windowHeight="8964" xr2:uid="{70043CCD-CF71-4FF8-B49A-2A7FAFADF74D}"/>
   </bookViews>
@@ -30,6 +30,29 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>n log n</t>
+  </si>
+  <si>
+    <t>time (s)</t>
+  </si>
+  <si>
+    <t>input size</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
+    <t>Night9Knight</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -379,92 +402,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9EF34B-8747-427E-9DBD-28C5BD296ED6}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>10</v>
       </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>100</v>
       </c>
-      <c r="B2">
-        <v>5.0210952758789002E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>1000</v>
       </c>
-      <c r="B3">
-        <v>0.65248155593872004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2000</v>
-      </c>
-      <c r="B4">
-        <v>2.2225961685180602</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3000</v>
-      </c>
-      <c r="B5">
-        <v>5.1293807029724103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4000</v>
-      </c>
-      <c r="B6">
-        <v>9.3399848937988192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5000</v>
-      </c>
       <c r="B7">
-        <v>14.511217117309499</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="B8">
-        <v>25.256828069686801</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>3.1210376190185501E-2</v>
+      </c>
+      <c r="C8">
+        <v>3.1375169754028299E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>7000</v>
+        <v>100000</v>
       </c>
       <c r="B9">
-        <v>28.052793264388999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.187556266784667</v>
+      </c>
+      <c r="C9">
+        <v>0.171883344650268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>8000</v>
+        <v>1000000</v>
       </c>
       <c r="B10">
-        <v>36.285117864608701</v>
+        <v>1.7391889095306301</v>
+      </c>
+      <c r="C10">
+        <v>1.84947633743286</v>
       </c>
     </row>
   </sheetData>

--- a/asn.xlsx
+++ b/asn.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\GitHub\CPT212-Asn1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19F255E-D07D-45DC-9FA1-65B75FD37C3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08A5BF0-807E-48A3-9438-CA24D5CFEC30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3660" yWindow="2016" windowWidth="17280" windowHeight="8964" xr2:uid="{70043CCD-CF71-4FF8-B49A-2A7FAFADF74D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
   <si>
     <t>n</t>
   </si>
@@ -51,6 +51,39 @@
   </si>
   <si>
     <t>Night9Knight</t>
+  </si>
+  <si>
+    <t>n^2</t>
+  </si>
+  <si>
+    <t>40k</t>
+  </si>
+  <si>
+    <t>50k</t>
+  </si>
+  <si>
+    <t>100k</t>
+  </si>
+  <si>
+    <t>1m</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>30k</t>
+  </si>
+  <si>
+    <t>60k</t>
+  </si>
+  <si>
+    <t>20k</t>
+  </si>
+  <si>
+    <t>primitive</t>
+  </si>
+  <si>
+    <t>1k</t>
   </si>
 </sst>
 </file>
@@ -86,8 +119,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,31 +438,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9EF34B-8747-427E-9DBD-28C5BD296ED6}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="8.88671875" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -434,25 +486,55 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
         <v>1</v>
       </c>
+      <c r="L3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>10</v>
       </c>
       <c r="B5">
@@ -461,9 +543,15 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>100</v>
       </c>
       <c r="B6">
@@ -472,10 +560,16 @@
       <c r="C6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1000</v>
+      <c r="D6">
+        <v>9.9706649780273394E-4</v>
+      </c>
+      <c r="I6" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -483,10 +577,16 @@
       <c r="C7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>10000</v>
+      <c r="D7">
+        <v>5.6847572326660101E-2</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B8">
         <v>3.1210376190185501E-2</v>
@@ -494,27 +594,109 @@
       <c r="C8">
         <v>3.1375169754028299E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>100000</v>
+      <c r="D8">
+        <v>5.5768747329711896</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B9">
+        <v>4.8043966293334898E-2</v>
+      </c>
+      <c r="D9">
+        <v>23.0744662284851</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>5.38556575775146E-2</v>
+      </c>
+      <c r="D10">
+        <v>53.728494644165004</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>7.0811271667480399E-2</v>
+      </c>
+      <c r="D11">
+        <v>98.314227819442706</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>9.1756582260131794E-2</v>
+      </c>
+      <c r="D12">
+        <v>149.829011678695</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>0.107133388519287</v>
+      </c>
+      <c r="D13">
+        <v>222.70867776870699</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
         <v>0.187556266784667</v>
       </c>
-      <c r="C9">
+      <c r="C15">
         <v>0.171883344650268</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1000000</v>
-      </c>
-      <c r="B10">
+      <c r="I15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16">
         <v>1.7391889095306301</v>
       </c>
-      <c r="C10">
+      <c r="C16">
         <v>1.84947633743286</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -523,6 +705,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100695F3B058DCD1E4E9C94F36C22D8392E" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2a576fac2528a027e269c4d174fff77c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60b61a12b2bc913a912b2f8d044b5e3e">
     <xsd:element name="properties">
@@ -636,22 +833,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80638CA7-DF12-46C1-9BBE-0EDEF15358A0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EA18DB5-3485-4C51-9CC9-1533FE9610C7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F85BA186-ED22-46E4-AF3D-25D1FF76E672}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -665,27 +870,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EA18DB5-3485-4C51-9CC9-1533FE9610C7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80638CA7-DF12-46C1-9BBE-0EDEF15358A0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>